--- a/Finflux Automation Excels/Client/5042-CompondingPenalityCharge-Preclose-verify.xlsx
+++ b/Finflux Automation Excels/Client/5042-CompondingPenalityCharge-Preclose-verify.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Modify Transaction" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
   <si>
     <t>Preclose</t>
   </si>
@@ -158,15 +158,9 @@
     <t>% Loan Amount + Interest</t>
   </si>
   <si>
-    <t>$2.43</t>
-  </si>
-  <si>
     <t>$0</t>
   </si>
   <si>
-    <t>$10.82</t>
-  </si>
-  <si>
     <t>OverDueTillDate</t>
   </si>
   <si>
@@ -180,6 +174,9 @@
   </si>
   <si>
     <t>navigate</t>
+  </si>
+  <si>
+    <t>$12.55</t>
   </si>
 </sst>
 </file>
@@ -597,7 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -608,7 +605,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" s="9">
         <v>42095</v>
@@ -616,18 +613,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -640,7 +637,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,10 +682,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>133.82</v>
+        <v>133.79</v>
       </c>
       <c r="B3" s="4">
-        <v>133.82</v>
+        <v>133.79</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
@@ -725,10 +722,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>13.25</v>
+        <v>12.55</v>
       </c>
       <c r="B5" s="4">
-        <v>13.25</v>
+        <v>12.55</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
@@ -753,7 +750,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,25 +897,25 @@
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="4">
-        <v>844.77</v>
+        <v>844.78</v>
       </c>
       <c r="G4" s="7">
-        <v>3318.52</v>
+        <v>3318.51</v>
       </c>
       <c r="H4" s="4">
-        <v>42.95</v>
+        <v>42.94</v>
       </c>
       <c r="I4" s="4">
         <v>0</v>
       </c>
       <c r="J4" s="4">
-        <v>2.4300000000000002</v>
+        <v>0</v>
       </c>
       <c r="K4" s="4">
-        <v>890.15</v>
+        <v>887.72</v>
       </c>
       <c r="L4" s="4">
-        <v>890.15</v>
+        <v>887.72</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4">
@@ -947,29 +944,29 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7">
-        <v>3318.52</v>
+        <v>3318.51</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
       </c>
       <c r="H5" s="4">
-        <v>39.86</v>
+        <v>39.840000000000003</v>
       </c>
       <c r="I5" s="4">
         <v>0</v>
       </c>
       <c r="J5" s="4">
-        <v>10.82</v>
+        <v>12.55</v>
       </c>
       <c r="K5" s="4">
-        <v>50.68</v>
+        <v>52.39</v>
       </c>
       <c r="L5" s="7">
-        <v>3369.2</v>
+        <v>3370.9</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7">
-        <v>3318.52</v>
+        <v>3318.51</v>
       </c>
       <c r="O5" s="4">
         <v>0</v>
@@ -986,10 +983,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,7 +994,7 @@
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -1028,10 +1025,12 @@
       <c r="J1" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>1136</v>
+        <v>346</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>29</v>
@@ -1043,7 +1042,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="4">
-        <v>10.82</v>
+        <v>12.55</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
@@ -1055,15 +1054,17 @@
         <v>0</v>
       </c>
       <c r="I2" s="4">
-        <v>10.82</v>
+        <v>12.55</v>
       </c>
       <c r="J2" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>1135</v>
+        <v>345</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>29</v>
@@ -1075,7 +1076,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="4">
-        <v>10.82</v>
+        <v>12.55</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -1087,15 +1088,17 @@
         <v>0</v>
       </c>
       <c r="I3" s="4">
-        <v>10.82</v>
+        <v>12.55</v>
       </c>
       <c r="J3" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>1134</v>
+        <v>344</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>29</v>
@@ -1107,27 +1110,29 @@
         <v>32</v>
       </c>
       <c r="E4" s="7">
-        <v>4547.07</v>
+        <v>4546.34</v>
       </c>
       <c r="F4" s="7">
         <v>4451.01</v>
       </c>
       <c r="G4" s="4">
-        <v>82.81</v>
+        <v>82.78</v>
       </c>
       <c r="H4" s="4">
         <v>0</v>
       </c>
       <c r="I4" s="4">
-        <v>13.25</v>
+        <v>12.55</v>
       </c>
       <c r="J4" s="4">
-        <v>-10.82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>-12.55</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>1133</v>
+        <v>343</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>29</v>
@@ -1139,13 +1144,13 @@
         <v>31</v>
       </c>
       <c r="E5" s="4">
-        <v>45.77</v>
+        <v>45.74</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>45.77</v>
+        <v>45.74</v>
       </c>
       <c r="H5" s="4">
         <v>0</v>
@@ -1154,12 +1159,14 @@
         <v>0</v>
       </c>
       <c r="J5" s="7">
-        <v>4536.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>4533.79</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>1132</v>
+        <v>342</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>29</v>
@@ -1171,13 +1178,13 @@
         <v>30</v>
       </c>
       <c r="E6" s="4">
-        <v>45.77</v>
+        <v>45.74</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>45.77</v>
+        <v>45.74</v>
       </c>
       <c r="H6" s="4">
         <v>0</v>
@@ -1188,10 +1195,12 @@
       <c r="J6" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>1131</v>
+        <v>341</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>29</v>
@@ -1203,7 +1212,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="4">
-        <v>46.1</v>
+        <v>43.67</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -1215,15 +1224,17 @@
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>2.4300000000000002</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7">
-        <v>4490.4799999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>4488.05</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>1130</v>
+        <v>340</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>29</v>
@@ -1235,7 +1246,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="4">
-        <v>46.1</v>
+        <v>43.67</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -1247,15 +1258,17 @@
         <v>0</v>
       </c>
       <c r="I8" s="4">
-        <v>2.4300000000000002</v>
+        <v>0</v>
       </c>
       <c r="J8" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>1129</v>
+        <v>339</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>29</v>
@@ -1284,10 +1297,12 @@
       <c r="J9" s="7">
         <v>4444.38</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>1124</v>
+        <v>334</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>29</v>
@@ -1316,10 +1331,12 @@
       <c r="J10" s="7">
         <v>5044.38</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>1123</v>
+        <v>333</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>29</v>
@@ -1348,10 +1365,12 @@
       <c r="J11" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>1122</v>
+        <v>332</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>29</v>
@@ -1380,6 +1399,8 @@
       <c r="J12" s="3">
         <v>5000</v>
       </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1388,13 +1409,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -1454,53 +1478,22 @@
         <v>42</v>
       </c>
       <c r="E3" s="5">
-        <v>42050</v>
+        <v>42095</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="5">
-        <v>42095</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
